--- a/data/unisa/AdvancedAnalytic1/w6/PoorakaMonthlyFit.xlsx
+++ b/data/unisa/AdvancedAnalytic1/w6/PoorakaMonthlyFit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.workspace\26.Unisa\Master of Data Science\Term 3 (SP52023)\RainfallModelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.workspace\27.blog\myblog\src\.vuepress\public\data\unisa\AdvancedAnalytic1\w6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D9228237-A320-41FD-A89B-7C4605767D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2510663-26E7-4B29-A643-4FDA8637BD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="15600" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -627,16 +626,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -644,9 +637,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4247,37 +4243,37 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="9"/>
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <f>MIN(A3:A89)</f>
         <v>0.5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4285,44 +4281,44 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>1.2172848243512757</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <f>H4/H3</f>
         <v>1.070279935855573</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <f>MAX(A3:A89)</f>
         <v>119.5</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="4">
         <v>5</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="4">
         <v>14</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <f>O2/2</f>
         <v>2.5</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <f>_xlfn.GAMMA.DIST(Q2,$E$2,$E$3,FALSE())</f>
         <v>3.651289355965015E-2</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <f>R2*$H$27*5</f>
         <v>14.60515742386006</v>
       </c>
@@ -4335,38 +4331,38 @@
         <f>(E$2-1)*LN(A3)-A3/$E$3-$E$2*LN($E$3)-$E$4</f>
         <v>-6.3939869990741665</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>17.055379566524763</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f>H5^2/H4</f>
         <v>19.397962443726126</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M25" si="0">M2+5</f>
         <v>10</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="4">
         <v>14</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q25" si="1">Q2+5</f>
         <v>7.5</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <f>_xlfn.GAMMA.DIST(Q3,$E$2,$E$3,FALSE())</f>
         <v>3.4577894494737686E-2</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S25" si="2">R3*$H$27*5</f>
         <v>13.831157797895075</v>
       </c>
@@ -4379,39 +4375,39 @@
         <f t="shared" ref="B4:B67" si="3">(E$2-1)*LN(A4)-A4/$E$3-$E$2*LN($E$3)-$E$4</f>
         <v>-4.2904578533472515</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f>GAMMALN(E2)</f>
         <v>-9.0182029957035392E-2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>AVERAGE(A3:A89)</f>
         <v>20.761250000000011</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="4">
         <v>15</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="4">
         <v>11</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <f t="shared" ref="R4:R25" si="4">_xlfn.GAMMA.DIST(Q4,$E$2,$E$3,FALSE())</f>
         <v>2.8819337772264021E-2</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <f t="shared" si="2"/>
         <v>11.527735108905608</v>
       </c>
@@ -4424,32 +4420,32 @@
         <f t="shared" si="3"/>
         <v>-3.2952640685747188</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>STDEV(A3:A89)</f>
         <v>20.068032982452696</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="4">
         <v>20</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="4">
         <v>10</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <f t="shared" si="4"/>
         <v>2.3126850202111051E-2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <f t="shared" si="2"/>
         <v>9.2507400808444213</v>
       </c>
@@ -4462,32 +4458,32 @@
         <f t="shared" si="3"/>
         <v>-3.7027930107371581</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>SUM(B3:B148)</f>
         <v>-321.73276106018329</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="4">
         <v>25</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="4">
         <v>6</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <f t="shared" si="4"/>
         <v>1.8218516485436063E-2</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <f t="shared" si="2"/>
         <v>7.2874065941744259</v>
       </c>
@@ -4500,32 +4496,32 @@
         <f t="shared" si="3"/>
         <v>-3.3542919731210015</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f>COUNT($E$2:$E$3)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="4">
         <v>30</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="4">
         <v>6</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <f t="shared" si="4"/>
         <v>1.4194840150330913E-2</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
         <v>5.6779360601323647</v>
       </c>
@@ -4538,39 +4534,39 @@
         <f t="shared" si="3"/>
         <v>-3.3127913306807351</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>E2*E3</f>
         <v>20.761254719881432</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="4" t="b">
         <f t="array" ref="H8">$E$2:$E$3&gt;=0.00001</f>
         <v>1</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="4">
         <v>35</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="4">
         <v>6</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <f t="shared" si="4"/>
         <v>1.0979327782135052E-2</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="4">
         <f t="shared" si="2"/>
         <v>4.3917311128540204</v>
       </c>
@@ -4583,37 +4579,37 @@
         <f t="shared" si="3"/>
         <v>-3.4198245938080829</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <f>E2*E3^2</f>
         <v>354.09107952488159</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
         <f>{100,100,0.000001,0.05,FALSE,FALSE,FALSE,1,1,1,0.0001,FALSE}</f>
         <v>100</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="4">
         <v>40</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="4">
         <v>3</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <f t="shared" si="4"/>
         <v>8.4481308837605264E-3</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="4">
         <f t="shared" si="2"/>
         <v>3.3792523535042109</v>
       </c>
@@ -4626,39 +4622,39 @@
         <f t="shared" si="3"/>
         <v>-3.2986575218324115</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <f>SQRT(E9)</f>
         <v>18.817307977627447</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f>MAX($E$6)</f>
         <v>-321.73276106018329</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="4">
         <v>45</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="4">
         <v>2</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="4">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <f t="shared" si="4"/>
         <v>6.4751944440518665E-3</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="4">
         <f t="shared" si="2"/>
         <v>2.5900777776207469</v>
       </c>
@@ -4671,25 +4667,25 @@
         <f t="shared" si="3"/>
         <v>-4.0594412828124744</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="4">
         <v>50</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="4">
         <v>3</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="4">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="4">
         <f t="shared" si="4"/>
         <v>4.9480009451718853E-3</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="4">
         <f t="shared" si="2"/>
         <v>1.9792003780687542</v>
       </c>
@@ -4702,25 +4698,25 @@
         <f t="shared" si="3"/>
         <v>-3.6892902350792367</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="4">
         <v>55</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="4">
         <v>1</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="4">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <f t="shared" si="4"/>
         <v>3.7718576600489235E-3</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="4">
         <f t="shared" si="2"/>
         <v>1.5087430640195691</v>
       </c>
@@ -4733,29 +4729,29 @@
         <f t="shared" si="3"/>
         <v>-3.6580937707488492</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="M13" s="6">
+      <c r="H13" s="8"/>
+      <c r="M13" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="4">
         <v>60</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="4">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="4">
         <f t="shared" si="4"/>
         <v>2.8695975137632986E-3</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="4">
         <f t="shared" si="2"/>
         <v>1.1478390055053196</v>
       </c>
@@ -4768,25 +4764,25 @@
         <f t="shared" si="3"/>
         <v>-3.5101756852010602</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="4">
         <v>65</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="4">
         <v>0</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="4">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="4">
         <f t="shared" si="4"/>
         <v>2.1795680281500702E-3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="4">
         <f t="shared" si="2"/>
         <v>0.87182721126002805</v>
       </c>
@@ -4805,25 +4801,25 @@
       <c r="H15">
         <v>20.76125</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="4">
         <v>70</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="4">
         <v>2</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="4">
         <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="4">
         <f t="shared" si="4"/>
         <v>1.6531565767099173E-3</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="4">
         <f t="shared" si="2"/>
         <v>0.66126263068396696</v>
       </c>
@@ -4842,25 +4838,25 @@
       <c r="H16">
         <v>2.2436742961735998</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="4">
         <v>75</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="4">
         <v>0</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="4">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="4">
         <f t="shared" si="4"/>
         <v>1.2523864001763084E-3</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="4">
         <f t="shared" si="2"/>
         <v>0.5009545600705233</v>
       </c>
@@ -4879,25 +4875,25 @@
       <c r="H17">
         <v>15.35</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="4">
         <v>80</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="4">
         <v>1</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="4">
         <f t="shared" si="4"/>
         <v>9.4779147960316005E-4</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="4">
         <f t="shared" si="2"/>
         <v>0.37911659184126401</v>
       </c>
@@ -4916,25 +4912,25 @@
       <c r="H18">
         <v>28.2</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="4">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="4">
         <v>85</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="4">
         <v>0</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="4">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="4">
         <f t="shared" si="4"/>
         <v>7.1662780863910572E-4</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="4">
         <f t="shared" si="2"/>
         <v>0.28665112345564231</v>
       </c>
@@ -4953,25 +4949,25 @@
       <c r="H19">
         <v>20.068032982452699</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="4">
         <v>90</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="4">
         <v>0</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="4">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="4">
         <f t="shared" si="4"/>
         <v>5.4141123247241772E-4</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="4">
         <f t="shared" si="2"/>
         <v>0.21656449298896707</v>
       </c>
@@ -4990,25 +4986,25 @@
       <c r="H20">
         <v>402.72594778480902</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="4">
         <v>95</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="4">
         <v>0</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="4">
         <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="4">
         <f t="shared" si="4"/>
         <v>4.0874478971569844E-4</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="4">
         <f t="shared" si="2"/>
         <v>0.16349791588627938</v>
       </c>
@@ -5027,25 +5023,25 @@
       <c r="H21">
         <v>7.0689441814523004</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="4">
         <v>100</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="4">
         <v>0</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="4">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="4">
         <f t="shared" si="4"/>
         <v>3.083905581117071E-4</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="4">
         <f t="shared" si="2"/>
         <v>0.12335622324468283</v>
       </c>
@@ -5064,25 +5060,25 @@
       <c r="H22">
         <v>2.1989481331118998</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="4">
         <v>105</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="4">
         <v>0</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="4">
         <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="4">
         <f t="shared" si="4"/>
         <v>2.3254200998407539E-4</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="4">
         <f t="shared" si="2"/>
         <v>9.3016803993630146E-2</v>
       </c>
@@ -5101,25 +5097,25 @@
       <c r="H23">
         <v>119</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="4">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="4">
         <v>110</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="4">
         <v>0</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="4">
         <f t="shared" si="1"/>
         <v>107.5</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="4">
         <f t="shared" si="4"/>
         <v>1.7525763914080444E-4</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="4">
         <f t="shared" si="2"/>
         <v>7.0103055656321772E-2</v>
       </c>
@@ -5138,25 +5134,25 @@
       <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="4">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="4">
         <v>115</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="4">
         <v>0</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="4">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="4">
         <f t="shared" si="4"/>
         <v>1.3202255309220718E-4</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="4">
         <f t="shared" si="2"/>
         <v>5.2809021236882872E-2</v>
       </c>
@@ -5175,25 +5171,25 @@
       <c r="H25">
         <v>119.5</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="4">
         <v>120</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="4">
         <v>1</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="4">
         <f t="shared" si="1"/>
         <v>117.5</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="4">
         <f t="shared" si="4"/>
         <v>9.9410603748154334E-5</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="4">
         <f t="shared" si="2"/>
         <v>3.9764241499261735E-2</v>
       </c>
@@ -5212,10 +5208,10 @@
       <c r="H26">
         <v>1660.9</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5227,10 +5223,10 @@
         <f t="shared" si="3"/>
         <v>-3.5303224520021748</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>80</v>
       </c>
     </row>
@@ -6394,7 +6390,7 @@
         <v>90.9</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B88" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-5.816019564854221</v>
       </c>
     </row>
@@ -7236,7 +7232,7 @@
         <v>17.8</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B88" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-3.839462724363405</v>
       </c>
     </row>
@@ -8078,7 +8074,7 @@
         <v>49.7</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-5.2450267971090305</v>
       </c>
     </row>
@@ -12534,7 +12530,7 @@
         <v>48</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B84" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-5.2677007756692591</v>
       </c>
     </row>
@@ -13340,7 +13336,7 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B82" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-3.4022650610711676</v>
       </c>
     </row>
@@ -14128,7 +14124,7 @@
         <v>40.5</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-4.5705609663767817</v>
       </c>
     </row>
@@ -14979,7 +14975,7 @@
         <v>122</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-6.139133219962174</v>
       </c>
     </row>
@@ -15191,8 +15187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15216,85 +15212,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="9"/>
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <f>MIN(A3:A89)</f>
         <v>2.9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>2.1306873285524999</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <f>H4/H3</f>
         <v>2.6714156706137646</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <f>MAX(A3:A89)</f>
         <v>184.3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <v>5</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <v>1</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <f>O2/2</f>
         <v>2.5</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <f>_xlfn.GAMMA.DIST(Q2,$E$2,$E$3,FALSE())</f>
         <v>1.6279756388083409E-3</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <f>R2*$H$26*5</f>
         <v>0.70816940288162833</v>
       </c>
@@ -15304,42 +15300,42 @@
         <v>83.7</v>
       </c>
       <c r="B3">
-        <f>(E$2-1)*LN(A3)-A3/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" ref="B3:B34" si="0">(E$2-1)*LN(A3)-A3/$E$3-$E$2*LN($E$3)-$E$4</f>
         <v>-5.0719787062139359</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>30.976459369556299</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f>H5^2/H4</f>
         <v>24.70643193094822</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M38" si="0">M2+5</f>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M38" si="1">M2+5</f>
         <v>10</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>6</v>
       </c>
-      <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q38" si="1">Q2+5</f>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q38" si="2">Q2+5</f>
         <v>7.5</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <f>_xlfn.GAMMA.DIST(Q3,$E$2,$E$3,FALSE())</f>
         <v>4.7975789336975605E-3</v>
       </c>
-      <c r="S3" s="6">
-        <f t="shared" ref="S3:S38" si="2">R3*$H$26*5</f>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S38" si="3">R3*$H$26*5</f>
         <v>2.0869468361584387</v>
       </c>
     </row>
@@ -15348,43 +15344,43 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <f>(E$2-1)*LN(A4)-A4/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.4391747612885135</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f>GAMMALN(E2)</f>
         <v>6.061543012628598E-2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>AVERAGE(A3:A89)</f>
         <v>66.001149425287366</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="0"/>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>15</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="R4" s="6">
-        <f t="shared" ref="R4:R38" si="3">_xlfn.GAMMA.DIST(Q4,$E$2,$E$3,FALSE())</f>
+      <c r="R4" s="4">
+        <f t="shared" ref="R4:R38" si="4">_xlfn.GAMMA.DIST(Q4,$E$2,$E$3,FALSE())</f>
         <v>7.2738270238258493E-3</v>
       </c>
-      <c r="S4" s="6">
-        <f t="shared" si="2"/>
+      <c r="S4" s="4">
+        <f t="shared" si="3"/>
         <v>3.1641147553642446</v>
       </c>
     </row>
@@ -15393,36 +15389,36 @@
         <v>89.7</v>
       </c>
       <c r="B5">
-        <f>(E$2-1)*LN(A5)-A5/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.1873946713853538</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>STDEV(A3:A89)</f>
         <v>40.381343534362557</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="0"/>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>20</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>2</v>
       </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
+        <f t="shared" si="4"/>
+        <v>9.0549771245184846E-3</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>9.0549771245184846E-3</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="2"/>
         <v>3.9389150491655407</v>
       </c>
     </row>
@@ -15431,36 +15427,36 @@
         <v>52.7</v>
       </c>
       <c r="B6">
-        <f>(E$2-1)*LN(A6)-A6/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.5943013081065089</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>SUM(B3:B148)</f>
         <v>-439.7762390643648</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="0"/>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>25</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>4</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="4">
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0237523135591913E-2</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="3"/>
-        <v>1.0237523135591913E-2</v>
-      </c>
-      <c r="S6" s="6">
-        <f t="shared" si="2"/>
         <v>4.4533225639824821</v>
       </c>
     </row>
@@ -15469,36 +15465,36 @@
         <v>131.5</v>
       </c>
       <c r="B7">
-        <f>(E$2-1)*LN(A7)-A7/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-6.1042777767302772</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f>COUNT($E$2:$E$3)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="0"/>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>30</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <v>1</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0930342375801361E-2</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="3"/>
-        <v>1.0930342375801361E-2</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" si="2"/>
         <v>4.7546989334735921</v>
       </c>
     </row>
@@ -15507,43 +15503,43 @@
         <v>60.4</v>
       </c>
       <c r="B8">
-        <f>(E$2-1)*LN(A8)-A8/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.6886812098997277</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>E2*E3</f>
         <v>66.001149462134961</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="4" t="b">
         <f t="array" ref="H8">$E$2:$E$3&gt;=0.00001</f>
         <v>1</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="0"/>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>35</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <v>4</v>
       </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1234795094069355E-2</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
-        <v>1.1234795094069355E-2</v>
-      </c>
-      <c r="S8" s="6">
-        <f t="shared" si="2"/>
         <v>4.88713586592017</v>
       </c>
     </row>
@@ -15552,41 +15548,41 @@
         <v>62.5</v>
       </c>
       <c r="B9">
-        <f>(E$2-1)*LN(A9)-A9/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.7178306143466022</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <f>E2*E3^2</f>
         <v>2044.4819246578361</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
         <f>{100,100,0.000001,0.05,FALSE,FALSE,FALSE,1,1,1,0.0001,FALSE}</f>
         <v>100</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="0"/>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>40</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <v>1</v>
       </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="4">
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1239170944690933E-2</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="3"/>
-        <v>1.1239170944690933E-2</v>
-      </c>
-      <c r="S9" s="6">
-        <f t="shared" si="2"/>
         <v>4.889039360940556</v>
       </c>
     </row>
@@ -15595,43 +15591,43 @@
         <v>71.2</v>
       </c>
       <c r="B10">
-        <f>(E$2-1)*LN(A10)-A10/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.8513307999085757</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <f>SQRT(E9)</f>
         <v>45.215947680634052</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f>MAX($E$6)</f>
         <v>-439.7762390643648</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="0"/>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>45</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="4">
         <v>4</v>
       </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="4">
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1017804625475832E-2</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
-        <v>1.1017804625475832E-2</v>
-      </c>
-      <c r="S10" s="6">
-        <f t="shared" si="2"/>
         <v>4.792745012081987</v>
       </c>
     </row>
@@ -15640,29 +15636,29 @@
         <v>100.3</v>
       </c>
       <c r="B11">
-        <f>(E$2-1)*LN(A11)-A11/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.4032979725193062</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="0"/>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="4">
         <v>50</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="4">
         <v>5</v>
       </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="4">
+        <f t="shared" si="2"/>
         <v>47.5</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0631923087128016E-2</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
-        <v>1.0631923087128016E-2</v>
-      </c>
-      <c r="S11" s="6">
-        <f t="shared" si="2"/>
         <v>4.6248865429006871</v>
       </c>
     </row>
@@ -15671,33 +15667,33 @@
         <v>7.2</v>
       </c>
       <c r="B12">
-        <f>(E$2-1)*LN(A12)-A12/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.3761160153268266</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="M12" s="6">
-        <f t="shared" si="0"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <v>55</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="4">
         <v>8</v>
       </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="4">
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0131114076535504E-2</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
-        <v>1.0131114076535504E-2</v>
-      </c>
-      <c r="S12" s="6">
-        <f t="shared" si="2"/>
         <v>4.4070346232929438</v>
       </c>
     </row>
@@ -15706,29 +15702,29 @@
         <v>2.9</v>
       </c>
       <c r="B13">
-        <f>(E$2-1)*LN(A13)-A13/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-6.2655143879418835</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="0"/>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="4">
         <v>60</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="4">
         <v>7</v>
       </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="4">
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5549470062835894E-3</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
-        <v>9.5549470062835894E-3</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="2"/>
         <v>4.1564019477333609</v>
       </c>
     </row>
@@ -15737,7 +15733,7 @@
         <v>88.2</v>
       </c>
       <c r="B14">
-        <f>(E$2-1)*LN(A14)-A14/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.1580384945415636</v>
       </c>
       <c r="G14" t="s">
@@ -15746,26 +15742,26 @@
       <c r="H14">
         <v>66.001149425287394</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="0"/>
+      <c r="M14" s="4">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>65</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="4">
         <v>3</v>
       </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="4">
+        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="4">
+        <f t="shared" si="4"/>
+        <v>8.9345400025170833E-3</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
-        <v>8.9345400025170833E-3</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="2"/>
         <v>3.8865249010949308</v>
       </c>
     </row>
@@ -15774,7 +15770,7 @@
         <v>184.3</v>
       </c>
       <c r="B15">
-        <f>(E$2-1)*LN(A15)-A15/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-7.4271253854744437</v>
       </c>
       <c r="G15" t="s">
@@ -15783,26 +15779,26 @@
       <c r="H15">
         <v>4.3293344576781196</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="0"/>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="4">
         <v>70</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="4">
         <v>4</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="4">
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="4">
+        <f t="shared" si="4"/>
+        <v>8.2939857450285582E-3</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
-        <v>8.2939857450285582E-3</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" si="2"/>
         <v>3.6078837990874231</v>
       </c>
     </row>
@@ -15811,7 +15807,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="B16">
-        <f>(E$2-1)*LN(A16)-A16/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.7676967444300642</v>
       </c>
       <c r="G16" t="s">
@@ -15820,26 +15816,26 @@
       <c r="H16">
         <v>59.3</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" si="0"/>
+      <c r="M16" s="4">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="4">
         <v>75</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="4">
         <v>5</v>
       </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="4">
+        <f t="shared" si="4"/>
+        <v>7.6516054814325428E-3</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="3"/>
-        <v>7.6516054814325428E-3</v>
-      </c>
-      <c r="S16" s="6">
-        <f t="shared" si="2"/>
         <v>3.3284483844231563</v>
       </c>
     </row>
@@ -15848,7 +15844,7 @@
         <v>59.3</v>
       </c>
       <c r="B17">
-        <f>(E$2-1)*LN(A17)-A17/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.6739521786434004</v>
       </c>
       <c r="G17" t="s">
@@ -15857,26 +15853,26 @@
       <c r="H17">
         <v>71.2</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="0"/>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>80</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="4">
         <v>1</v>
       </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="4">
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0210283029799722E-3</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="3"/>
-        <v>7.0210283029799722E-3</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="2"/>
         <v>3.0541473117962878</v>
       </c>
     </row>
@@ -15885,7 +15881,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="B18">
-        <f>(E$2-1)*LN(A18)-A18/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.485860340011441</v>
       </c>
       <c r="G18" t="s">
@@ -15894,26 +15890,26 @@
       <c r="H18">
         <v>40.3813435343625</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" si="0"/>
+      <c r="M18" s="4">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="4">
         <v>85</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="4">
         <v>3</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="4">
+        <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="4">
+        <f t="shared" si="4"/>
+        <v>6.4121060191787435E-3</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="3"/>
-        <v>6.4121060191787435E-3</v>
-      </c>
-      <c r="S18" s="6">
-        <f t="shared" si="2"/>
         <v>2.7892661183427538</v>
       </c>
     </row>
@@ -15922,7 +15918,7 @@
         <v>166.6</v>
       </c>
       <c r="B19">
-        <f>(E$2-1)*LN(A19)-A19/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-6.9698882567655245</v>
       </c>
       <c r="G19" t="s">
@@ -15931,26 +15927,26 @@
       <c r="H19">
         <v>1630.6529056402001</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="0"/>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="4">
         <v>90</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="4">
         <v>6</v>
       </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="4">
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8316797541582274E-3</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="3"/>
-        <v>5.8316797541582274E-3</v>
-      </c>
-      <c r="S19" s="6">
-        <f t="shared" si="2"/>
         <v>2.5367806930588288</v>
       </c>
     </row>
@@ -15959,7 +15955,7 @@
         <v>58.7</v>
       </c>
       <c r="B20">
-        <f>(E$2-1)*LN(A20)-A20/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.666081245484027</v>
       </c>
       <c r="G20" t="s">
@@ -15968,26 +15964,26 @@
       <c r="H20">
         <v>0.75830532878573698</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" si="0"/>
+      <c r="M20" s="4">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="4">
         <v>95</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="4">
         <v>3</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="4">
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="4">
+        <f t="shared" si="4"/>
+        <v>5.2842162559502328E-3</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="3"/>
-        <v>5.2842162559502328E-3</v>
-      </c>
-      <c r="S20" s="6">
-        <f t="shared" si="2"/>
         <v>2.2986340713383511</v>
       </c>
     </row>
@@ -15996,7 +15992,7 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <f>(E$2-1)*LN(A21)-A21/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.5174480601499933</v>
       </c>
       <c r="G21" t="s">
@@ -16005,26 +16001,26 @@
       <c r="H21">
         <v>0.81388376797259998</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" si="0"/>
+      <c r="M21" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="4">
         <v>100</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="4">
         <v>2</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="4">
+        <f t="shared" si="4"/>
+        <v>4.7723317371170578E-3</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="3"/>
-        <v>4.7723317371170578E-3</v>
-      </c>
-      <c r="S21" s="6">
-        <f t="shared" si="2"/>
         <v>2.07596430564592</v>
       </c>
     </row>
@@ -16033,7 +16029,7 @@
         <v>182.2</v>
       </c>
       <c r="B22">
-        <f>(E$2-1)*LN(A22)-A22/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-7.3722895102863406</v>
       </c>
       <c r="G22" t="s">
@@ -16042,26 +16038,26 @@
       <c r="H22">
         <v>181.4</v>
       </c>
-      <c r="M22" s="6">
-        <f t="shared" si="0"/>
+      <c r="M22" s="4">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="4">
         <v>105</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="4">
         <v>4</v>
       </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2972198734772763E-3</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="3"/>
-        <v>4.2972198734772763E-3</v>
-      </c>
-      <c r="S22" s="6">
-        <f t="shared" si="2"/>
         <v>1.8692906449626152</v>
       </c>
     </row>
@@ -16070,7 +16066,7 @@
         <v>100.8</v>
       </c>
       <c r="B23">
-        <f>(E$2-1)*LN(A23)-A23/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.4138167376639021</v>
       </c>
       <c r="G23" t="s">
@@ -16079,26 +16075,26 @@
       <c r="H23">
         <v>2.9</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="0"/>
+      <c r="M23" s="4">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="4">
         <v>110</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="4">
         <v>0</v>
       </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="2"/>
         <v>107.5</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8589989424170344E-3</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="3"/>
-        <v>3.8589989424170344E-3</v>
-      </c>
-      <c r="S23" s="6">
-        <f t="shared" si="2"/>
         <v>1.67866453995141</v>
       </c>
     </row>
@@ -16107,7 +16103,7 @@
         <v>49.2</v>
       </c>
       <c r="B24">
-        <f>(E$2-1)*LN(A24)-A24/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.5590151859307158</v>
       </c>
       <c r="G24" t="s">
@@ -16116,26 +16112,26 @@
       <c r="H24">
         <v>184.3</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="0"/>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="4">
         <v>115</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="4">
         <v>2</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="4">
+        <f t="shared" si="4"/>
+        <v>3.456991296417836E-3</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="3"/>
-        <v>3.456991296417836E-3</v>
-      </c>
-      <c r="S24" s="6">
-        <f t="shared" si="2"/>
         <v>1.5037912139417586</v>
       </c>
     </row>
@@ -16144,7 +16140,7 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <f>(E$2-1)*LN(A25)-A25/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.6202508443891777</v>
       </c>
       <c r="G25" t="s">
@@ -16153,26 +16149,26 @@
       <c r="H25">
         <v>5742.1</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" si="0"/>
+      <c r="M25" s="4">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <v>120</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="4">
         <v>2</v>
       </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="2"/>
         <v>117.5</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0899466110764847E-3</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="3"/>
-        <v>3.0899466110764847E-3</v>
-      </c>
-      <c r="S25" s="6">
-        <f t="shared" si="2"/>
         <v>1.3441267758182709</v>
       </c>
     </row>
@@ -16181,35 +16177,35 @@
         <v>23.5</v>
       </c>
       <c r="B26">
-        <f>(E$2-1)*LN(A26)-A26/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.564810083972981</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>87</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="0"/>
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="4">
         <v>125</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="4">
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="2"/>
         <v>122.5</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.7562187079719531E-3</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="3"/>
-        <v>2.7562187079719531E-3</v>
-      </c>
-      <c r="S26" s="6">
-        <f t="shared" si="2"/>
         <v>1.1989551379677996</v>
       </c>
     </row>
@@ -16218,29 +16214,29 @@
         <v>102.1</v>
       </c>
       <c r="B27">
-        <f>(E$2-1)*LN(A27)-A27/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.4412950452460507</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="0"/>
+      <c r="M27" s="4">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="4">
         <v>130</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="4">
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="4">
+        <f t="shared" si="2"/>
         <v>127.5</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4539042716677597E-3</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="3"/>
-        <v>2.4539042716677597E-3</v>
-      </c>
-      <c r="S27" s="6">
-        <f t="shared" si="2"/>
         <v>1.0674483581754755</v>
       </c>
     </row>
@@ -16249,7 +16245,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="B28">
-        <f>(E$2-1)*LN(A28)-A28/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.7556807743948788</v>
       </c>
       <c r="G28" t="s">
@@ -16259,26 +16255,26 @@
         <f>H18/H14</f>
         <v>0.61182788308972946</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="0"/>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="4">
         <v>135</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="4">
         <v>2</v>
       </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="2"/>
         <v>132.5</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1809504700306299E-3</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="3"/>
-        <v>2.1809504700306299E-3</v>
-      </c>
-      <c r="S28" s="6">
-        <f t="shared" si="2"/>
         <v>0.948713454463324</v>
       </c>
     </row>
@@ -16287,29 +16283,29 @@
         <v>21.9</v>
       </c>
       <c r="B29">
-        <f>(E$2-1)*LN(A29)-A29/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.5928869998320581</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="0"/>
+      <c r="M29" s="4">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="4">
         <v>140</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="4">
         <v>0</v>
       </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="4">
+        <f t="shared" si="2"/>
         <v>137.5</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9352373456404282E-3</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="3"/>
-        <v>1.9352373456404282E-3</v>
-      </c>
-      <c r="S29" s="6">
-        <f t="shared" si="2"/>
         <v>0.84182824535358625</v>
       </c>
     </row>
@@ -16318,29 +16314,29 @@
         <v>84.1</v>
       </c>
       <c r="B30">
-        <f>(E$2-1)*LN(A30)-A30/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.0795010848393547</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="0"/>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="4">
         <v>145</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="4">
         <v>0</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="4">
+        <f t="shared" si="2"/>
         <v>142.5</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="4">
+        <f t="shared" si="4"/>
+        <v>1.714639862881114E-3</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="3"/>
-        <v>1.714639862881114E-3</v>
-      </c>
-      <c r="S30" s="6">
-        <f t="shared" si="2"/>
         <v>0.74586834035328453</v>
       </c>
     </row>
@@ -16349,29 +16345,29 @@
         <v>119</v>
       </c>
       <c r="B31">
-        <f>(E$2-1)*LN(A31)-A31/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-5.8136823857102806</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="0"/>
+      <c r="M31" s="4">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="4">
         <v>150</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="4">
         <v>0</v>
       </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="4">
+        <f t="shared" si="2"/>
         <v>147.5</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5170736558975375E-3</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="3"/>
-        <v>1.5170736558975375E-3</v>
-      </c>
-      <c r="S31" s="6">
-        <f t="shared" si="2"/>
         <v>0.65992704031542881</v>
       </c>
     </row>
@@ -16380,29 +16376,29 @@
         <v>17.7</v>
       </c>
       <c r="B32">
-        <f>(E$2-1)*LN(A32)-A32/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.6980483718421526</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="0"/>
+      <c r="M32" s="4">
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="4">
         <v>155</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="4">
         <v>1</v>
       </c>
-      <c r="Q32" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q32" s="4">
+        <f t="shared" si="2"/>
         <v>152.5</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3405278111058956E-3</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="3"/>
-        <v>1.3405278111058956E-3</v>
-      </c>
-      <c r="S32" s="6">
-        <f t="shared" si="2"/>
         <v>0.58312959783106455</v>
       </c>
     </row>
@@ -16411,29 +16407,29 @@
         <v>12.5</v>
       </c>
       <c r="B33">
-        <f>(E$2-1)*LN(A33)-A33/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.923472712762524</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="0"/>
+      <c r="M33" s="4">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="4">
         <v>160</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="4">
+        <f t="shared" si="2"/>
         <v>157.5</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1830874185180368E-3</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="3"/>
-        <v>1.1830874185180368E-3</v>
-      </c>
-      <c r="S33" s="6">
-        <f t="shared" si="2"/>
         <v>0.51464302705534604</v>
       </c>
     </row>
@@ -16442,29 +16438,29 @@
         <v>44.8</v>
       </c>
       <c r="B34">
-        <f>(E$2-1)*LN(A34)-A34/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="0"/>
         <v>-4.5229008275829061</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="0"/>
+      <c r="M34" s="4">
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="4">
         <v>165</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="4">
         <v>1</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q34" s="4">
+        <f t="shared" si="2"/>
         <v>162.5</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0429481237902709E-3</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="3"/>
-        <v>1.0429481237902709E-3</v>
-      </c>
-      <c r="S34" s="6">
-        <f t="shared" si="2"/>
         <v>0.45368243384876783</v>
       </c>
     </row>
@@ -16473,29 +16469,29 @@
         <v>51.7</v>
       </c>
       <c r="B35">
-        <f>(E$2-1)*LN(A35)-A35/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" ref="B35:B66" si="5">(E$2-1)*LN(A35)-A35/$E$3-$E$2*LN($E$3)-$E$4</f>
         <v>-4.5836800682747798</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="0"/>
+      <c r="M35" s="4">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="4">
         <v>170</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="4">
         <v>1</v>
       </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q35" s="4">
+        <f t="shared" si="2"/>
         <v>167.5</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="4">
+        <f t="shared" si="4"/>
+        <v>9.1842449390434531E-4</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="3"/>
-        <v>9.1842449390434531E-4</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="2"/>
         <v>0.39951465484839022</v>
       </c>
     </row>
@@ -16504,29 +16500,29 @@
         <v>57.9</v>
       </c>
       <c r="B36">
-        <f>(E$2-1)*LN(A36)-A36/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6557708607056858</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" si="0"/>
+      <c r="M36" s="4">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="4">
         <v>175</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="4">
         <v>0</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q36" s="4">
+        <f t="shared" si="2"/>
         <v>172.5</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0795366143016491E-4</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="3"/>
-        <v>8.0795366143016491E-4</v>
-      </c>
-      <c r="S36" s="6">
-        <f t="shared" si="2"/>
         <v>0.35145984272212172</v>
       </c>
     </row>
@@ -16535,29 +16531,29 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <f>(E$2-1)*LN(A37)-A37/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.498536439235469</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="0"/>
+      <c r="M37" s="4">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="4">
         <v>180</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="4">
         <v>0</v>
       </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q37" s="4">
+        <f t="shared" si="2"/>
         <v>177.5</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1009542455875956E-4</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="3"/>
-        <v>7.1009542455875956E-4</v>
-      </c>
-      <c r="S37" s="6">
-        <f t="shared" si="2"/>
         <v>0.30889150968306039</v>
       </c>
     </row>
@@ -16566,29 +16562,29 @@
         <v>110.1</v>
       </c>
       <c r="B38">
-        <f>(E$2-1)*LN(A38)-A38/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.6142607885823024</v>
       </c>
-      <c r="M38" s="6">
-        <f t="shared" si="0"/>
+      <c r="M38" s="4">
+        <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="4">
         <v>185</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="4">
         <v>2</v>
       </c>
-      <c r="Q38" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
         <v>182.5</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="4">
+        <f t="shared" si="4"/>
+        <v>6.2352974307682246E-4</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="3"/>
-        <v>6.2352974307682246E-4</v>
-      </c>
-      <c r="S38" s="6">
-        <f t="shared" si="2"/>
         <v>0.27123543823841778</v>
       </c>
     </row>
@@ -16597,13 +16593,13 @@
         <v>20.7</v>
       </c>
       <c r="B39">
-        <f>(E$2-1)*LN(A39)-A39/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6178654561907786</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -16612,7 +16608,7 @@
         <v>42.4</v>
       </c>
       <c r="B40">
-        <f>(E$2-1)*LN(A40)-A40/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5076780301039445</v>
       </c>
     </row>
@@ -16621,7 +16617,7 @@
         <v>116.3</v>
       </c>
       <c r="B41">
-        <f>(E$2-1)*LN(A41)-A41/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.7524691865674606</v>
       </c>
     </row>
@@ -16630,7 +16626,7 @@
         <v>55.2</v>
       </c>
       <c r="B42">
-        <f>(E$2-1)*LN(A42)-A42/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6226032274698641</v>
       </c>
     </row>
@@ -16639,7 +16635,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <f>(E$2-1)*LN(A43)-A43/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.9534883351401637</v>
       </c>
     </row>
@@ -16648,7 +16644,7 @@
         <v>45.3</v>
       </c>
       <c r="B44">
-        <f>(E$2-1)*LN(A44)-A44/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5264927393825571</v>
       </c>
     </row>
@@ -16657,7 +16653,7 @@
         <v>51.3</v>
       </c>
       <c r="B45">
-        <f>(E$2-1)*LN(A45)-A45/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5795491182852439</v>
       </c>
     </row>
@@ -16666,7 +16662,7 @@
         <v>60.5</v>
       </c>
       <c r="B46">
-        <f>(E$2-1)*LN(A46)-A46/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.69003901688155</v>
       </c>
     </row>
@@ -16675,7 +16671,7 @@
         <v>51.2</v>
       </c>
       <c r="B47">
-        <f>(E$2-1)*LN(A47)-A47/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5785270802523481</v>
       </c>
     </row>
@@ -16684,7 +16680,7 @@
         <v>20.8</v>
       </c>
       <c r="B48">
-        <f>(E$2-1)*LN(A48)-A48/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6156446079955176</v>
       </c>
     </row>
@@ -16693,7 +16689,7 @@
         <v>59.1</v>
       </c>
       <c r="B49">
-        <f>(E$2-1)*LN(A49)-A49/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6713155560790067</v>
       </c>
     </row>
@@ -16702,7 +16698,7 @@
         <v>89.3</v>
       </c>
       <c r="B50">
-        <f>(E$2-1)*LN(A50)-A50/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.1795349993437911</v>
       </c>
     </row>
@@ -16711,7 +16707,7 @@
         <v>87.5</v>
       </c>
       <c r="B51">
-        <f>(E$2-1)*LN(A51)-A51/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.1444501976219295</v>
       </c>
     </row>
@@ -16720,7 +16716,7 @@
         <v>92.2</v>
       </c>
       <c r="B52">
-        <f>(E$2-1)*LN(A52)-A52/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.2370192464330598</v>
       </c>
     </row>
@@ -16729,7 +16725,7 @@
         <v>73.3</v>
       </c>
       <c r="B53">
-        <f>(E$2-1)*LN(A53)-A53/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.8862576336709838</v>
       </c>
     </row>
@@ -16738,7 +16734,7 @@
         <v>152.69999999999999</v>
       </c>
       <c r="B54">
-        <f>(E$2-1)*LN(A54)-A54/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-6.6196664724051786</v>
       </c>
     </row>
@@ -16747,7 +16743,7 @@
         <v>132.69999999999999</v>
       </c>
       <c r="B55">
-        <f>(E$2-1)*LN(A55)-A55/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-6.1327456065184194</v>
       </c>
     </row>
@@ -16756,7 +16752,7 @@
         <v>59.4</v>
       </c>
       <c r="B56">
-        <f>(E$2-1)*LN(A56)-A56/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.6752753184476958</v>
       </c>
     </row>
@@ -16765,7 +16761,7 @@
         <v>6.5</v>
       </c>
       <c r="B57">
-        <f>(E$2-1)*LN(A57)-A57/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.4691636086325026</v>
       </c>
     </row>
@@ -16774,7 +16770,7 @@
         <v>8.9</v>
       </c>
       <c r="B58">
-        <f>(E$2-1)*LN(A58)-A58/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.1913243232910737</v>
       </c>
     </row>
@@ -16783,7 +16779,7 @@
         <v>52</v>
       </c>
       <c r="B59">
-        <f>(E$2-1)*LN(A59)-A59/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5868227562808626</v>
       </c>
     </row>
@@ -16792,7 +16788,7 @@
         <v>90.1</v>
       </c>
       <c r="B60">
-        <f>(E$2-1)*LN(A60)-A60/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.1952768278598906</v>
       </c>
     </row>
@@ -16801,7 +16797,7 @@
         <v>33.5</v>
       </c>
       <c r="B61">
-        <f>(E$2-1)*LN(A61)-A61/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.4867563161328174</v>
       </c>
     </row>
@@ -16810,7 +16806,7 @@
         <v>110.4</v>
       </c>
       <c r="B62">
-        <f>(E$2-1)*LN(A62)-A62/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.6208688602017363</v>
       </c>
     </row>
@@ -16819,7 +16815,7 @@
         <v>48.2</v>
       </c>
       <c r="B63">
-        <f>(E$2-1)*LN(A63)-A63/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5499508216031126</v>
       </c>
     </row>
@@ -16828,7 +16824,7 @@
         <v>44.5</v>
       </c>
       <c r="B64">
-        <f>(E$2-1)*LN(A64)-A64/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-4.5208130857587445</v>
       </c>
     </row>
@@ -16837,7 +16833,7 @@
         <v>89.1</v>
       </c>
       <c r="B65">
-        <f>(E$2-1)*LN(A65)-A65/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.1756136579672143</v>
       </c>
     </row>
@@ -16846,7 +16842,7 @@
         <v>7.8</v>
       </c>
       <c r="B66">
-        <f>(E$2-1)*LN(A66)-A66/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="5"/>
         <v>-5.3049822874805104</v>
       </c>
     </row>
@@ -16855,7 +16851,7 @@
         <v>86.4</v>
       </c>
       <c r="B67">
-        <f>(E$2-1)*LN(A67)-A67/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" ref="B67:B98" si="6">(E$2-1)*LN(A67)-A67/$E$3-$E$2*LN($E$3)-$E$4</f>
         <v>-5.1232438189159302</v>
       </c>
     </row>
@@ -16864,7 +16860,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f>(E$2-1)*LN(A68)-A68/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.7692105405586558</v>
       </c>
     </row>
@@ -16873,7 +16869,7 @@
         <v>51.6</v>
       </c>
       <c r="B69">
-        <f>(E$2-1)*LN(A69)-A69/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.5826409443076228</v>
       </c>
     </row>
@@ -16882,7 +16878,7 @@
         <v>69.7</v>
       </c>
       <c r="B70">
-        <f>(E$2-1)*LN(A70)-A70/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.8269820919304083</v>
       </c>
     </row>
@@ -16891,7 +16887,7 @@
         <v>8.6</v>
       </c>
       <c r="B71">
-        <f>(E$2-1)*LN(A71)-A71/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.2204097704495771</v>
       </c>
     </row>
@@ -16900,7 +16896,7 @@
         <v>96.1</v>
       </c>
       <c r="B72">
-        <f>(E$2-1)*LN(A72)-A72/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.3160778499642314</v>
       </c>
     </row>
@@ -16909,7 +16905,7 @@
         <v>32</v>
       </c>
       <c r="B73">
-        <f>(E$2-1)*LN(A73)-A73/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.4901287093923115</v>
       </c>
     </row>
@@ -16918,7 +16914,7 @@
         <v>15.6</v>
       </c>
       <c r="B74">
-        <f>(E$2-1)*LN(A74)-A74/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.7730536706208762</v>
       </c>
     </row>
@@ -16927,7 +16923,7 @@
         <v>49</v>
       </c>
       <c r="B75">
-        <f>(E$2-1)*LN(A75)-A75/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.5571643275105265</v>
       </c>
     </row>
@@ -16936,7 +16932,7 @@
         <v>50.4</v>
       </c>
       <c r="B76">
-        <f>(E$2-1)*LN(A76)-A76/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.5705074846375</v>
       </c>
     </row>
@@ -16945,7 +16941,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="B77">
-        <f>(E$2-1)*LN(A77)-A77/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.9429986685218346</v>
       </c>
     </row>
@@ -16954,7 +16950,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B78">
-        <f>(E$2-1)*LN(A78)-A78/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.1635243162959013</v>
       </c>
     </row>
@@ -16963,7 +16959,7 @@
         <v>99.9</v>
       </c>
       <c r="B79">
-        <f>(E$2-1)*LN(A79)-A79/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.3949031779726031</v>
       </c>
     </row>
@@ -16972,7 +16968,7 @@
         <v>160.19999999999999</v>
       </c>
       <c r="B80">
-        <f>(E$2-1)*LN(A80)-A80/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-6.8075718204646716</v>
       </c>
     </row>
@@ -16981,7 +16977,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="B81">
-        <f>(E$2-1)*LN(A81)-A81/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.8828904294126216</v>
       </c>
     </row>
@@ -16990,7 +16986,7 @@
         <v>48.6</v>
       </c>
       <c r="B82">
-        <f>(E$2-1)*LN(A82)-A82/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.5535192766812624</v>
       </c>
     </row>
@@ -16999,7 +16995,7 @@
         <v>33</v>
       </c>
       <c r="B83">
-        <f>(E$2-1)*LN(A83)-A83/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.4876181639645765</v>
       </c>
     </row>
@@ -17008,7 +17004,7 @@
         <v>56.2</v>
       </c>
       <c r="B84">
-        <f>(E$2-1)*LN(A84)-A84/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.6345856683265652</v>
       </c>
     </row>
@@ -17017,7 +17013,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="B85">
-        <f>(E$2-1)*LN(A85)-A85/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.4863606011469255</v>
       </c>
     </row>
@@ -17026,7 +17022,7 @@
         <v>82.2</v>
       </c>
       <c r="B86">
-        <f>(E$2-1)*LN(A86)-A86/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.0440018202220589</v>
       </c>
     </row>
@@ -17035,7 +17031,7 @@
         <v>94.4</v>
       </c>
       <c r="B87">
-        <f>(E$2-1)*LN(A87)-A87/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-5.281378247484132</v>
       </c>
     </row>
@@ -17044,7 +17040,7 @@
         <v>71.2</v>
       </c>
       <c r="B88">
-        <f>(E$2-1)*LN(A88)-A88/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.8513307999085757</v>
       </c>
     </row>
@@ -17053,7 +17049,7 @@
         <v>71</v>
       </c>
       <c r="B89">
-        <f>(E$2-1)*LN(A89)-A89/$E$3-$E$2*LN($E$3)-$E$4</f>
+        <f t="shared" si="6"/>
         <v>-4.8480548412580129</v>
       </c>
     </row>
@@ -17712,7 +17708,7 @@
         <v>41.9</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-4.2013914619629169</v>
       </c>
     </row>
@@ -18563,7 +18559,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-4.9102051008381205</v>
       </c>
     </row>
@@ -19414,7 +19410,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B98" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
+        <f t="shared" ref="B67:B89" si="2">(D$1-1)*LN(A67)-A67/$D$2-$D$1*LN($D$2)-$D$3</f>
         <v>-4.5354087704159758</v>
       </c>
     </row>
